--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T14:14:41+00:00</t>
+    <t>2022-08-23T14:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T14:37:49+00:00</t>
+    <t>2022-08-24T00:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T00:00:04+00:00</t>
+    <t>2022-08-24T01:12:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T01:12:00+00:00</t>
+    <t>2022-08-24T05:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T05:56:06+00:00</t>
+    <t>2022-08-24T08:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T08:36:55+00:00</t>
+    <t>2022-08-25T07:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T07:26:37+00:00</t>
+    <t>2022-08-25T09:08:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T09:08:19+00:00</t>
+    <t>2022-08-26T06:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T06:24:45+00:00</t>
+    <t>2022-08-26T08:05:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:05:58+00:00</t>
+    <t>2022-08-26T08:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:35:36+00:00</t>
+    <t>2022-08-26T11:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T11:44:17+00:00</t>
+    <t>2022-08-26T11:46:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T11:46:15+00:00</t>
+    <t>2022-08-29T02:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T02:59:02+00:00</t>
+    <t>2022-08-29T03:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T03:09:31+00:00</t>
+    <t>2022-08-29T03:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T03:34:24+00:00</t>
+    <t>2022-08-29T04:09:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T04:09:01+00:00</t>
+    <t>2022-08-29T12:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T12:54:27+00:00</t>
+    <t>2022-08-29T13:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T13:08:49+00:00</t>
+    <t>2022-08-29T13:33:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T13:33:12+00:00</t>
+    <t>2022-08-29T14:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:08:50+00:00</t>
+    <t>2022-08-29T14:28:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:28:45+00:00</t>
+    <t>2022-08-30T01:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-30T01:48:21+00:00</t>
+    <t>2022-08-30T01:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-30T01:58:57+00:00</t>
+    <t>2022-08-31T03:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T03:49:51+00:00</t>
+    <t>2022-08-31T03:54:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T03:54:28+00:00</t>
+    <t>2022-08-31T04:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T04:03:32+00:00</t>
+    <t>2022-08-31T10:04:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:04:27+00:00</t>
+    <t>2022-08-31T10:47:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:47:17+00:00</t>
+    <t>2022-08-31T12:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:43:18+00:00</t>
+    <t>2022-08-31T13:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T13:42:36+00:00</t>
+    <t>2022-08-31T15:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:28:04+00:00</t>
+    <t>2022-08-31T15:55:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:55:44+00:00</t>
+    <t>2022-09-01T06:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T06:32:04+00:00</t>
+    <t>2022-09-01T12:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T12:04:59+00:00</t>
+    <t>2022-09-02T02:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T02:55:21+00:00</t>
+    <t>2022-09-02T03:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T03:38:16+00:00</t>
+    <t>2022-09-02T05:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:18:16+00:00</t>
+    <t>2022-09-02T05:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:23:11+00:00</t>
+    <t>2022-09-02T05:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:31:57+00:00</t>
+    <t>2022-09-02T07:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T07:45:49+00:00</t>
+    <t>2022-09-02T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:30:25+00:00</t>
+    <t>2022-09-02T09:35:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:35:05+00:00</t>
+    <t>2022-09-02T10:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T10:41:06+00:00</t>
+    <t>2022-09-02T11:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:26:25+00:00</t>
+    <t>2022-09-02T11:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:38:41+00:00</t>
+    <t>2022-09-02T11:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:58:56+00:00</t>
+    <t>2022-09-02T12:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T12:49:53+00:00</t>
+    <t>2022-09-02T13:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T13:37:55+00:00</t>
+    <t>2022-09-02T13:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T13:46:03+00:00</t>
+    <t>2022-09-02T14:13:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:13:59+00:00</t>
+    <t>2022-09-02T14:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:17:12+00:00</t>
+    <t>2022-09-02T14:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:29:53+00:00</t>
+    <t>2022-09-02T14:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:35:52+00:00</t>
+    <t>2022-09-02T15:10:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:10:38+00:00</t>
+    <t>2022-09-03T01:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T01:46:21+00:00</t>
+    <t>2022-09-03T13:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T13:39:51+00:00</t>
+    <t>2022-09-05T02:07:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T02:07:34+00:00</t>
+    <t>2022-09-05T03:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T03:06:13+00:00</t>
+    <t>2022-09-05T04:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T04:03:43+00:00</t>
+    <t>2022-09-05T05:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T05:18:44+00:00</t>
+    <t>2022-09-05T06:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T06:29:27+00:00</t>
+    <t>2022-09-05T10:47:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T10:47:02+00:00</t>
+    <t>2022-09-05T23:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T23:00:51+00:00</t>
+    <t>2022-09-06T08:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T08:38:56+00:00</t>
+    <t>2022-09-06T09:29:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:29:54+00:00</t>
+    <t>2022-09-06T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:17:19+00:00</t>
+    <t>2022-09-07T00:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T00:39:19+00:00</t>
+    <t>2022-09-07T05:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T05:54:57+00:00</t>
+    <t>2022-09-07T09:10:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:10:58+00:00</t>
+    <t>2022-09-08T21:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T21:26:37+00:00</t>
+    <t>2022-09-09T09:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T09:52:21+00:00</t>
+    <t>2022-09-09T10:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:24:51+00:00</t>
+    <t>2022-09-09T11:04:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T11:04:14+00:00</t>
+    <t>2022-09-09T11:59:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T11:59:54+00:00</t>
+    <t>2022-09-09T22:38:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T22:38:47+00:00</t>
+    <t>2022-09-11T10:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-11T10:13:05+00:00</t>
+    <t>2022-09-12T00:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T00:20:59+00:00</t>
+    <t>2022-09-12T01:27:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T01:27:47+00:00</t>
+    <t>2022-09-12T01:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T01:48:10+00:00</t>
+    <t>2022-09-12T06:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T06:11:30+00:00</t>
+    <t>2022-09-12T14:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T14:45:14+00:00</t>
+    <t>2022-09-12T16:50:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T16:50:28+00:00</t>
+    <t>2022-09-12T22:07:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T22:07:03+00:00</t>
+    <t>2022-09-12T23:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T23:10:46+00:00</t>
+    <t>2022-09-13T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:55:04+00:00</t>
+    <t>2022-09-14T04:12:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T04:12:14+00:00</t>
+    <t>2022-09-14T06:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T06:29:05+00:00</t>
+    <t>2022-09-14T13:27:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T13:27:16+00:00</t>
+    <t>2022-09-14T13:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T13:36:44+00:00</t>
+    <t>2022-09-15T06:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T06:46:51+00:00</t>
+    <t>2022-09-15T12:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T12:18:56+00:00</t>
+    <t>2022-09-15T23:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T23:26:28+00:00</t>
+    <t>2022-09-16T01:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:28:39+00:00</t>
+    <t>2022-09-16T02:31:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUp_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -383,45 +380,43 @@
       <c r="A16" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:31:03+00:00</t>
+    <t>2022-09-16T03:15:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureFollowUp_CS</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Version</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:15:32+00:00</t>
+    <t>2022-09-16T03:41:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:41:47+00:00</t>
+    <t>2022-09-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -80,7 +80,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>処置のフォローアップとして実施される処置のコード</t>
+    <t>処置のフォローアップとして実施される処置のコード（未使用）</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -47,7 +47,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
@@ -312,111 +315,113 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Version</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>Case Sensitive</t>
@@ -370,58 +373,58 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
